--- a/MarsQA-1/SpecflowTests/Data/Data.xlsx
+++ b/MarsQA-1/SpecflowTests/Data/Data.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B23157C-1C28-447C-AAD0-7894E3D67BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Language" sheetId="1" r:id="rId1"/>
+    <sheet name="Skills" sheetId="2" r:id="rId2"/>
+    <sheet name="Education" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Language</t>
   </si>
@@ -28,26 +31,101 @@
     <t>Japanese</t>
   </si>
   <si>
-    <t>Hindi</t>
-  </si>
-  <si>
-    <t>French</t>
-  </si>
-  <si>
     <t>Korean</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Gujarati</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>Conversational</t>
+  </si>
+  <si>
+    <t>Fluent</t>
+  </si>
+  <si>
+    <t>Native/Bilingual</t>
+  </si>
+  <si>
+    <t>Drawing</t>
+  </si>
+  <si>
+    <t>Painting</t>
+  </si>
+  <si>
+    <t>Intermediate</t>
+  </si>
+  <si>
+    <t>Skills</t>
+  </si>
+  <si>
+    <t>Levels</t>
+  </si>
+  <si>
+    <t>Beginner</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>University</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Degree</t>
+  </si>
+  <si>
+    <t>Graduation Year</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>K.S</t>
+  </si>
+  <si>
+    <t>bachler's in informtion technology</t>
+  </si>
+  <si>
+    <t>B.Sc</t>
+  </si>
+  <si>
+    <t>B.K</t>
+  </si>
+  <si>
+    <t>Master of Science</t>
+  </si>
+  <si>
+    <t>B.Tech</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -70,9 +148,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -166,6 +245,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -201,6 +297,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -376,11 +489,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,42 +506,167 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
         <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB14817F-2B21-40C7-A577-37B7419230B8}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F292388-DB44-4A51-9DAB-CB4EBFAA3A40}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="40.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>